--- a/medicine/Mort/Cimetière_de_Raadi/Cimetière_de_Raadi.xlsx
+++ b/medicine/Mort/Cimetière_de_Raadi/Cimetière_de_Raadi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Raadi</t>
+          <t>Cimetière_de_Raadi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Raadi, (en estonien : Raadi kalmistu) est le plus ancien et le plus grand cimetière de Tartu, en Estonie. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Raadi</t>
+          <t>Cimetière_de_Raadi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé en 1773, il est situé dans le quartier de Raadi-Kruusamäe. 
 De nombreux personnages historiques y sont enterrés. Il est aussi le plus grand cimetière d'Allemands de la Baltique en Estonie après la destruction du Cimetière Kopli de Tallinn. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Raadi</t>
+          <t>Cimetière_de_Raadi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Sections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le cimetière regroupe plusieurs sections correspondant à d'anciens cimetières historiques.
 Ancien cimetière de Saint-Jean
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Raadi</t>
+          <t>Cimetière_de_Raadi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Les origines : 1771-1773</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Entre 1771 et 1772, l'impératrice russe Catherine la Grande, émet un édit décrétant que désormais toute personne décédée (quel que soit son statut social ou sa classe d'origine) ne devait plus être enterrée dans une crypte d'église ou dans un cimetière attenant à une église. 
 Dans l'ensemble de l'empire russe toutes les inhumations ont alors lieu dans les nouveaux cimetières construits à l'extérieur des villes. 
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Raadi</t>
+          <t>Cimetière_de_Raadi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Déclin des sépultures 1939-1944</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les enterrements dans le cimetière ont été considérablement réduits après le transfert de la population allemande de la Baltique à l'ouest de la Pologne vers la fin de 1939. Les enterrements dans le cimetière se font ensuite plus rares jusqu'en 1944, principalement chez les Allemands de la Baltique qui avaient refusé l'appel d'Hitler à quitter la région.
 </t>
@@ -630,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Raadi</t>
+          <t>Cimetière_de_Raadi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,7 +668,9 @@
           <t>État actuel</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Au début du XXIe siècle, l'expansion de la ville a dépassé les frontières du cimetière et d'autres cimetières sont créés ailleurs dans la ville.
 </t>
@@ -661,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Raadi</t>
+          <t>Cimetière_de_Raadi</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,7 +701,9 @@
           <t>Inhumations notables</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Betti Alver (1906-1989), poète
 Paul Ariste (1905-1990), linguiste
